--- a/Plan/Data_추출파일/002.로비테이블.xlsx
+++ b/Plan/Data_추출파일/002.로비테이블.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365cntu-my.sharepoint.com/personal/201938026_s_cntu_ac_kr/Documents/Funigloo/1. 티니핑 프로젝트/Tiniffing_plan/Plan/Data_추출파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\OneDrive\바탕 화면\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB1B8DE-9F3E-449C-9C39-0B2AD674F1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{635F3CED-34F6-4CCF-864B-D5578F81AB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C1AA514-9567-40F0-A573-8597399BBBFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9F3D5C20-2C6E-4106-9601-08B1DCDCD245}"/>
   </bookViews>
   <sheets>
     <sheet name="002.로비테이블" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
     <t>mode_type</t>
   </si>
   <si>
-    <t>sign_image_name</t>
+    <t>box_image_name</t>
   </si>
   <si>
     <t>unboxing</t>
@@ -69,19 +71,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="굴림"/>
       <family val="2"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="굴림"/>
       <family val="2"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,16 +423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582F86B5-3C55-4EB8-8CD6-EB1A5D987FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77261A8-8060-490A-B014-63D243811321}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -593,7 +593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -731,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -777,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -823,7 +823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -846,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -869,7 +869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -919,4 +919,30 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8AE959-9673-4A4A-AA5B-BEE2341F6AF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE52752-9547-4C61-89A0-5183DA683A2E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>